--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_st01.xlsx
@@ -3032,7 +3032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  내가 말한 병원 기억해. 의료 물자는 지하 창고에 모여 있어.
+    <t xml:space="preserve">[name="W"]  내가 말한 병원 기억해둬. 의료 물자는 지하 창고에 모여 있어.
 </t>
   </si>
   <si>
@@ -3048,7 +3048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="강한 아이"]  가자!
+    <t xml:space="preserve">[name="강한 아이"]  도망가라고!
 </t>
   </si>
   <si>
@@ -3596,7 +3596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="약한 아이"]  안드레이 표도르 오스트롭스키…… 헤헤.
+    <t xml:space="preserve">[name="약한 아이"]  안드레이 표도르비치 오스트롭스키…… 헤헤.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_st01.xlsx
@@ -1860,11 +1860,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You’re still pushing forward?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Without treatment, you’re definitely getting infected.
+    <t xml:space="preserve">[name="W"]  You're still pushing forward?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Without treatment, you're definitely getting infected.
 </t>
   </si>
   <si>
@@ -1884,19 +1884,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I’ve been keeping my distance.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  And stop acting nice! If you’re gonna kill us, just do it already!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Waifish Child"]  Ru-Rublev, you really shouldn’t provoke her...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Okay. We’re going then.
+    <t xml:space="preserve">[name="W"]  I've been keeping my distance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  And stop acting nice! If you're gonna kill us, just do it already!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Waifish Child"]  Ru-Rublev, you really shouldn't provoke her...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  Okay. We're going then.
 </t>
   </si>
   <si>
@@ -1908,7 +1908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  I don’t care if I get infected! We don’t need a devil’s help!
+    <t xml:space="preserve">[name="Unyielding Child"]  I don't care if I get infected! We don't need a devil's help!
 </t>
   </si>
   <si>
@@ -1920,7 +1920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  There’s an abandoned hospital around here. Chernobog District Hospital.
+    <t xml:space="preserve">[name="W"]  There's an abandoned hospital around here. Chernobog District Hospital.
 </t>
   </si>
   <si>
@@ -1936,11 +1936,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Don’t listen to her. She’s trying to trick us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Let’s ditch her... quick.
+    <t xml:space="preserve">[name="Unyielding Child"]  Don't listen to her. She's trying to trick us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  Let's ditch her... quick.
 </t>
   </si>
   <si>
@@ -1956,7 +1956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  They’re fast.
+    <t xml:space="preserve">[name="W"]  They're fast.
 </t>
   </si>
   <si>
@@ -1968,7 +1968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Ugh, I could’ve outran her if I didn’t have to save you!
+    <t xml:space="preserve">[name="Unyielding Child"]  Ugh, I could've outran her if I didn't have to save you!
 </t>
   </si>
   <si>
@@ -1980,15 +1980,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Don’t let her find us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Head down that street, turn left, and you’ll come to a ruined plaza.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  On the west side, that big white building, that’s the hospital.
+    <t xml:space="preserve">[name="Unyielding Child"]  Don't let her find us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Head down that street, turn left, and you'll come to a ruined plaza.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  On the west side, that big white building, that's the hospital.
 </t>
   </si>
   <si>
@@ -1996,11 +1996,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Waifish Child"]  ...I think... she knows we’re here...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Because you don’t listen to me——fine.
+    <t xml:space="preserve">[name="Waifish Child"]  ...I think... she knows we're here...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  Because you don't listen to me——fine.
 </t>
   </si>
   <si>
@@ -2032,11 +2032,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  And that’s why you do what he says?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  No skin off my back. Whatever you want. But now it’s time for you to help out your savior here.
+    <t xml:space="preserve">[name="W"]  And that's why you do what he says?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  No skin off my back. Whatever you want. But now it's time for you to help out your savior here.
 </t>
   </si>
   <si>
@@ -2048,31 +2048,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Nothing. I told you, there’s a hospital right over there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I mean, Reunion isn’t dumb, so they wouldn’t waste perfectly good medical supplies... So if you wanna save your little pal Rublev, you’re gonna have to steal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  It’s a bunch of Infected thugs over there. Thugs who murdered your family and friends.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  And that’s the only place they’ll have the drugs that can stop the onset of Oripathy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  So go steal, rob, loot, it’s all good.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Just don’t expect anybody to help you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  No! Don’t listen to her!
+    <t xml:space="preserve">[name="W"]  Nothing. I told you, there's a hospital right over there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I mean, Reunion isn't dumb, so they wouldn't waste perfectly good medical supplies... So if you wanna save your little pal Rublev, you're gonna have to steal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  It's a bunch of Infected thugs over there. Thugs who murdered your family and friends.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  And that's the only place they'll have the drugs that can stop the onset of Oripathy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  So go steal, rob, loot, it's all good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Just don't expect anybody to help you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  No! Don't listen to her!
 </t>
   </si>
   <si>
@@ -2092,7 +2092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Don’t go! You can’t do it! There’s too many——
+    <t xml:space="preserve">[name="Unyielding Child"]  Don't go! You can't do it! There's too many——
 </t>
   </si>
   <si>
@@ -2104,15 +2104,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Waifish Child"]  Rublev isn’t the only one who got hurt in the Catastrophe...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Waifish Child"]  There’s so much pain... I...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Why aren’t you listening to me?!
+    <t xml:space="preserve">[name="Waifish Child"]  Rublev isn't the only one who got hurt in the Catastrophe...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Waifish Child"]  There's so much pain... I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  Why aren't you listening to me?!
 </t>
   </si>
   <si>
@@ -2120,11 +2120,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  He doesn’t have to listen to you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  It’s good that you wanna save those people.
+    <t xml:space="preserve">[name="W"]  He doesn't have to listen to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  It's good that you wanna save those people.
 </t>
   </si>
   <si>
@@ -2132,7 +2132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You could get in through the vents in the parking garage, or through the sewers, as long as there’s not too much toxic waste down there.
+    <t xml:space="preserve">[name="W"]  You could get in through the vents in the parking garage, or through the sewers, as long as there's not too much toxic waste down there.
 </t>
   </si>
   <si>
@@ -2140,11 +2140,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  C’mon, your legs are shaking! You can’t do it! We were dumb to even listen to a devil in the first place!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Let’s get out of here!
+    <t xml:space="preserve">[name="Unyielding Child"]  C'mon, your legs are shaking! You can't do it! We were dumb to even listen to a devil in the first place!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  Let's get out of here!
 </t>
   </si>
   <si>
@@ -2160,7 +2160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Why wouldn’t folks have their eye on a perfectly good battlefield hospital here in Chernobog?
+    <t xml:space="preserve">[name="W"]  Why wouldn't folks have their eye on a perfectly good battlefield hospital here in Chernobog?
 </t>
   </si>
   <si>
@@ -2176,11 +2176,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  That must hurt like a bastard. I’m starting to think he’s probably beyond help at this point.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  If you don’t act soon..
+    <t xml:space="preserve">[name="W"]  That must hurt like a bastard. I'm starting to think he's probably beyond help at this point.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  If you don't act soon..
 </t>
   </si>
   <si>
@@ -2204,19 +2204,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Oh... but what if it’s already too late, even if you did go? There’s a riot going on, it might be too hard to sneak in and grab the goods——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Waifish Child"]  I-I’m going.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  ——Yeah... you’re dead.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Why are you still listening to her? I’m the one who saved you!
+    <t xml:space="preserve">[name="W"]  Oh... but what if it's already too late, even if you did go? There's a riot going on, it might be too hard to sneak in and grab the goods——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Waifish Child"]  I-I'm going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  ——Yeah... you're dead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  Why are you still listening to her? I'm the one who saved you!
 </t>
   </si>
   <si>
@@ -2224,7 +2224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  There’s no way you can do it! We’ll go to a drugstore, we’ll find some food, that’ll be enough!!
+    <t xml:space="preserve">[name="Unyielding Child"]  There's no way you can do it! We'll go to a drugstore, we'll find some food, that'll be enough!!
 </t>
   </si>
   <si>
@@ -2232,7 +2232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Waifish Child"]  I’m sorry!
+    <t xml:space="preserve">[name="Waifish Child"]  I'm sorry!
 </t>
   </si>
   <si>
@@ -2252,19 +2252,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I haven’t told a single lie.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  But hey, whether or not you believe me, that’s your call.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Whether or not you believe him, that’s your call too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  ...I, I’m gonna go find him, nnggh...
+    <t xml:space="preserve">[name="W"]  I haven't told a single lie.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  But hey, whether or not you believe me, that's your call.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Whether or not you believe him, that's your call too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  ...I, I'm gonna go find him, nnggh...
 </t>
   </si>
   <si>
@@ -2272,15 +2272,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  H-He can’t do anything without me...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You’re scared he’s gonna run away.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You’re thinking... why did he leave you alone with me? With a devil?
+    <t xml:space="preserve">[name="Unyielding Child"]  H-He can't do anything without me...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You're scared he's gonna run away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You're thinking... why did he leave you alone with me? With a devil?
 </t>
   </si>
   <si>
@@ -2296,11 +2296,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Wait here for him. Don’t move.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Or I’ll kill you.
+    <t xml:space="preserve">[name="W"]  Wait here for him. Don't move.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Or I'll kill you.
 </t>
   </si>
   <si>
@@ -2312,19 +2312,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I’m a killer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I’m the killer who destroyed this city, hurt your parents and friends.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Ah... haha. That’s right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I forgot you had that blade. Look, it’s got a Sarkaz charm on the hilt, and it’s still bloody.
+    <t xml:space="preserve">[name="W"]  I'm a killer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I'm the killer who destroyed this city, hurt your parents and friends.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Ah... haha. That's right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I forgot you had that blade. Look, it's got a Sarkaz charm on the hilt, and it's still bloody.
 </t>
   </si>
   <si>
@@ -2332,7 +2332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  *Whimper*... I, I don’t know... you made him...
+    <t xml:space="preserve">[name="Unyielding Child"]  *Whimper*... I, I don't know... you made him...
 </t>
   </si>
   <si>
@@ -2340,11 +2340,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  It’s all up to you... whether you live or die.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  He can’t do it...
+    <t xml:space="preserve">[name="W"]  It's all up to you... whether you live or die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  He can't do it...
 </t>
   </si>
   <si>
@@ -2352,7 +2352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  If I hadn’t dug him out of those ruins, he’d already be dead...
+    <t xml:space="preserve">[name="Unyielding Child"]  If I hadn't dug him out of those ruins, he'd already be dead...
 </t>
   </si>
   <si>
@@ -2372,15 +2372,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  There’s a lot less resistance, after that slaughter. That’s a good thing. Less effort. Less death.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  But it’s quiet over at the hospital too. Nothing moving over there, as far as I can tell.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  He... he didn’t...
+    <t xml:space="preserve">[name="W"]  There's a lot less resistance, after that slaughter. That's a good thing. Less effort. Less death.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  But it's quiet over at the hospital too. Nothing moving over there, as far as I can tell.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  He... he didn't...
 </t>
   </si>
   <si>
@@ -2388,11 +2388,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Maybe... he didn’t actually go...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  It’s been... Nng... so long...
+    <t xml:space="preserve">[name="Unyielding Child"]  Maybe... he didn't actually go...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  It's been... Nng... so long...
 </t>
   </si>
   <si>
@@ -2400,7 +2400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  But you saved him. Wouldn’t he want to save you too? 
+    <t xml:space="preserve">[name="W"]  But you saved him. Wouldn't he want to save you too? 
 </t>
   </si>
   <si>
@@ -2408,19 +2408,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Or maybe you’re strong enough to save him, but he couldn’t save you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  He... He can’t do anything right!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Like when we went looking for food! He couldn’t even tell there was someone else in the store!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  It’s all his fault my leg got——!
+    <t xml:space="preserve">[name="W"]  Or maybe you're strong enough to save him, but he couldn't save you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  He... He can't do anything right!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  Like when we went looking for food! He couldn't even tell there was someone else in the store!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  It's all his fault my leg got——!
 </t>
   </si>
   <si>
@@ -2428,7 +2428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  I... I’m going home alone...
+    <t xml:space="preserve">[name="Unyielding Child"]  I... I'm going home alone...
 </t>
   </si>
   <si>
@@ -2448,11 +2448,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  N-No I don’t!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  But if... if he did go... it’s been so long... he must be...
+    <t xml:space="preserve">[name="Unyielding Child"]  N-No I don't!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  But if... if he did go... it's been so long... he must be...
 </t>
   </si>
   <si>
@@ -2460,15 +2460,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You won’t know anything until he comes back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You can sit here thinking he’s coming back, or that he’s not.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  But if you’re thinking that he’s not, if you’re doubting him, hating him, that’s on you.
+    <t xml:space="preserve">[name="W"]  You won't know anything until he comes back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You can sit here thinking he's coming back, or that he's not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  But if you're thinking that he's not, if you're doubting him, hating him, that's on you.
 </t>
   </si>
   <si>
@@ -2476,7 +2476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Because you saved him? Because you’re the strong one?
+    <t xml:space="preserve">[name="W"]  Because you saved him? Because you're the strong one?
 </t>
   </si>
   <si>
@@ -2488,19 +2488,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You’re still strong enough to cry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Settle down. Give it a minute and you’ll be in too much pain to cry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You’re young, you’re not Sarkaz. So if can’t take it anymore, you can tell me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I’ll end it for you.
+    <t xml:space="preserve">[name="W"]  You're still strong enough to cry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Settle down. Give it a minute and you'll be in too much pain to cry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You're young, you're not Sarkaz. So if can't take it anymore, you can tell me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I'll end it for you.
 </t>
   </si>
   <si>
@@ -2508,11 +2508,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You’re losing consciousness.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Ah well... guess he won’t make it in time.
+    <t xml:space="preserve">[name="W"]  You're losing consciousness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Ah well... guess he won't make it in time.
 </t>
   </si>
   <si>
@@ -2520,15 +2520,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  I’ll wait... for him...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You’ve got faith in him again. That’s because you’re scared to die.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Kids are a good judge of character. You won’t get this kind of stuff out of me.
+    <t xml:space="preserve">[name="Unyielding Child"]  I'll wait... for him...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You've got faith in him again. That's because you're scared to die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Kids are a good judge of character. You won't get this kind of stuff out of me.
 </t>
   </si>
   <si>
@@ -2536,7 +2536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  But he’s definitely taking way too long.
+    <t xml:space="preserve">[name="W"]  But he's definitely taking way too long.
 </t>
   </si>
   <si>
@@ -2544,11 +2544,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Don’t worry. If it comes down to it, I’m not gonna let a kid die in pain.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  ...can’t even whimper anymore, huh?
+    <t xml:space="preserve">[name="W"]  Don't worry. If it comes down to it, I'm not gonna let a kid die in pain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  ...can't even whimper anymore, huh?
 </t>
   </si>
   <si>
@@ -2560,11 +2560,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Or maybe you hate yourself for sticking your nose where it didn’t belong, saving that kid, and getting yourself hurt?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  ...I don’t...
+    <t xml:space="preserve">[name="W"]  Or maybe you hate yourself for sticking your nose where it didn't belong, saving that kid, and getting yourself hurt?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  ...I don't...
 </t>
   </si>
   <si>
@@ -2576,11 +2576,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  What do you think it is that decides what a person’s gonna do?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Is it a nature or nurture thing? Where they’re born, how they’re born? What kind of baggage they’re weighed down with?
+    <t xml:space="preserve">[name="W"]  What do you think it is that decides what a person's gonna do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Is it a nature or nurture thing? Where they're born, how they're born? What kind of baggage they're weighed down with?
 </t>
   </si>
   <si>
@@ -2588,7 +2588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  It’s the whole, complete, sum total of the influences on his life, all those changing thoughts and beliefs.
+    <t xml:space="preserve">[name="W"]  It's the whole, complete, sum total of the influences on his life, all those changing thoughts and beliefs.
 </t>
   </si>
   <si>
@@ -2596,27 +2596,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You saved that kid, but you didn’t really trust him completely. You looked down on him, because you saw yourself as his messiah.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  But him? He’s easy. You saved him, he wants to save you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  When it comes to this stuff, he’s stronger than you are.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Keep the blade. It’s a Sarkaz blade, so I’m allowed to stand in for its owner and give it to you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Wave it around, learn to swing it, sell it for cash. Whatever. It’s yours.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  That’s the deal.
+    <t xml:space="preserve">[name="W"]  You saved that kid, but you didn't really trust him completely. You looked down on him, because you saw yourself as his messiah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  But him? He's easy. You saved him, he wants to save you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  When it comes to this stuff, he's stronger than you are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Keep the blade. It's a Sarkaz blade, so I'm allowed to stand in for its owner and give it to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Wave it around, learn to swing it, sell it for cash. Whatever. It's yours.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  That's the deal.
 </t>
   </si>
   <si>
@@ -2636,7 +2636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Keep it... down. I’m not dead yet...
+    <t xml:space="preserve">[name="Unyielding Child"]  Keep it... down. I'm not dead yet...
 </t>
   </si>
   <si>
@@ -2644,15 +2644,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Waifish Child"]  How do you use the bandage...? Is- is this the Oripathy medicine? I-I’ll open it...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Aren’t... your parents doctors?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Waifish Child"]  Oh... they never taught me anything. But I’ll try...
+    <t xml:space="preserve">[name="Waifish Child"]  How do you use the bandage...? Is- is this the Oripathy medicine? I-I'll open it...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"]  Aren't... your parents doctors?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Waifish Child"]  Oh... they never taught me anything. But I'll try...
 </t>
   </si>
   <si>
@@ -2660,7 +2660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Waifish Child"]  I’m fine. Just a scratch... Somebody hit me with a piece of metal...
+    <t xml:space="preserve">[name="Waifish Child"]  I'm fine. Just a scratch... Somebody hit me with a piece of metal...
 </t>
   </si>
   <si>
@@ -2672,11 +2672,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  Where’s... the Sarkaz?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Waifish Child"]  Oh... I didn’t see her when I came back... Did she stay with you?
+    <t xml:space="preserve">[name="Unyielding Child"]  Where's... the Sarkaz?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Waifish Child"]  Oh... I didn't see her when I came back... Did she stay with you?
 </t>
   </si>
   <si>
@@ -2684,7 +2684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Unyielding Child"]  ...Say, um... What’s... your name?
+    <t xml:space="preserve">[name="Unyielding Child"]  ...Say, um... What's... your name?
 </t>
   </si>
   <si>
@@ -2712,7 +2712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Waifish Child"]  N-No, you don’t have to apologize...
+    <t xml:space="preserve">[name="Waifish Child"]  N-No, you don't have to apologize...
 </t>
   </si>
   <si>
@@ -2728,7 +2728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Waifish Child"]  Let’s go back home. I’ll help you up.
+    <t xml:space="preserve">[name="Waifish Child"]  Let's go back home. I'll help you up.
 </t>
   </si>
   <si>
@@ -2756,7 +2756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Isn’t that right...
+    <t xml:space="preserve">[name="W"]  Isn't that right...
 </t>
   </si>
   <si>
